--- a/VersionRecords/Version Brand/定时器/新增定时器.xlsx
+++ b/VersionRecords/Version Brand/定时器/新增定时器.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>定时器大类</t>
   </si>
@@ -73,27 +73,31 @@
     <t>上线版本</t>
   </si>
   <si>
+    <t>CalculateVScoreTask
+(mogoroom-tasktracker)</t>
+  </si>
+  <si>
+    <t>计算房东V分</t>
+  </si>
+  <si>
+    <t>金刚</t>
+  </si>
+  <si>
+    <t>史欣欣</t>
+  </si>
+  <si>
+    <t>未上线</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>根据职业房东评分体系，依据房源录入量，在线签约量等数据计算并更新房东V分</t>
+  </si>
+  <si>
     <t>CalculateVScoreTask</t>
   </si>
   <si>
-    <t>计算房东V分</t>
-  </si>
-  <si>
-    <t>金刚</t>
-  </si>
-  <si>
-    <t>史欣欣</t>
-  </si>
-  <si>
-    <t>未上线</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>根据职业房东评分体系，依据房源录入量，在线签约量等数据计算并更新房东V分</t>
-  </si>
-  <si>
     <t>com.mogoroom.tasktracker.task.CalculateVScoreTask</t>
   </si>
   <si>
@@ -109,42 +113,117 @@
     <t>报错原因：错误数据导致，根据报错日志，修复数据，重新执行一次即可</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CollectUserBehaviorRecordTask
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(mogoda-tasktracker)</t>
+    </r>
+  </si>
+  <si>
+    <t>收集用户行为记录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（mogoda-tasktracker包）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+收集用户浏览记录，拨打记录，收藏记录等行为记录，整合到一张表里便于数据分析</t>
+    </r>
   </si>
   <si>
     <t>CollectUserBehaviorRecordTask</t>
   </si>
   <si>
-    <t>收集用户行为记录</t>
-  </si>
-  <si>
-    <t>（mogoda-tasktracker包）
-收集用户浏览记录，拨打记录，收藏记录等行为记录，整合到一张表里便于数据分析</t>
-  </si>
-  <si>
     <t>com.mogoroom.tasktracker.task.CollectUserBehaviorRecordTask</t>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.CollectUserBehaviorRecordTask"}</t>
   </si>
   <si>
-    <t>每3分钟执行一次</t>
+    <t>首次执行：每10分钟执行一次
+稳定后：改为每3分钟执行一次</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AnalysisUserBehaviorRecordTask
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(mogoda-tasktracker)</t>
+    </r>
+  </si>
+  <si>
+    <t>分析用户行为记录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（mogoda-tasktracker包）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+根据用户行为数据，分析用户兴趣点，保存用户兴趣点，用于个性化房源推荐</t>
+    </r>
   </si>
   <si>
     <t>AnalysisUserBehaviorRecordTask</t>
   </si>
   <si>
-    <t>分析用户行为记录</t>
-  </si>
-  <si>
-    <t>（mogoda-tasktracker包）
-根据用户行为数据，分析用户兴趣点，保存用户兴趣点，用于个性化房源推荐</t>
-  </si>
-  <si>
     <t>com.mogoroom.tasktracker.task.AnalysisUserBehaviorRecordTask</t>
   </si>
   <si>
     <t>{"taskImpl":"com.mogoroom.tasktracker.task.AnalysisUserBehaviorRecordTask"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+首次执行：每10分钟执行一次
+稳定后：每3分钟执行一次
+</t>
   </si>
 </sst>
 </file>
@@ -157,7 +236,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,17 +264,108 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -204,9 +374,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,82 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -302,6 +404,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -312,24 +428,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -353,181 +460,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +715,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -626,17 +742,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,17 +763,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,20 +791,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,10 +820,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,133 +832,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -861,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,8 +993,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -898,23 +1005,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1262,12 +1381,12 @@
     <col min="13" max="13" width="66" style="2" customWidth="1"/>
     <col min="14" max="14" width="62.25" style="2" customWidth="1"/>
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
-    <col min="16" max="16" width="27.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="32.625" style="4" customWidth="1"/>
     <col min="17" max="17" width="44.375" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:18">
+    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:18">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1298,28 +1417,28 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1342,45 +1461,45 @@
         <v>21</v>
       </c>
       <c r="H2" s="11"/>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="L2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="M2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="N2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="O2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="Q2" s="16" t="s">
         <v>30</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="45" customHeight="1" spans="1:18">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
-        <v>31</v>
+      <c r="C3" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>20</v>
@@ -1392,45 +1511,45 @@
         <v>21</v>
       </c>
       <c r="H3" s="11"/>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="4" ht="45" customHeight="1" spans="1:18">
+    <row r="4" ht="57" spans="1:18">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>37</v>
+      <c r="C4" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>20</v>
@@ -1442,35 +1561,35 @@
         <v>21</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="8" t="s">
+      <c r="K4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="15" t="s">
+      <c r="L4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>30</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
